--- a/public/MCA.xlsx
+++ b/public/MCA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afzaal Hamzah\Documents\react\Scholix\scholix-frontend\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D46713-92CD-4AF4-9D64-5EE5089216FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="63">
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
+        <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="1"/>
       </rPr>
@@ -29,642 +35,639 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">for a course can be seen by clicking on the course code (appears as a link) in your transcript.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">MCA(Rounded)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Grade on MCA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">F</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">D</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">D+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">C-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">C</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">C+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">B-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">B+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">A+</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤29</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥70</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥71</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥72</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥73</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥74</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥76</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥77</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥78</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥79</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥81</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤31</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥82</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥83</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥86</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥87</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤37</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤38</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥89</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥91</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤41</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥92</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥93</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤43</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥94</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≥95</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤47</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤48</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.0"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">≤49</t>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>for a course can be seen by clicking on the course code (appears as a link) in your transcript.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>MCA(Rounded)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>Grade on MCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>D+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>C-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>C+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>B-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>B</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>B+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>A-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>A+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥70</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥73</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥74</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥77</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥78</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥83</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥87</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥89</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥91</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤41</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥92</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤42</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥93</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥94</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≥95</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>≤49</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -680,6 +683,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -718,65 +732,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="2" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="2" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="2" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="3" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="3" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="164" fillId="4" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="4" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="4" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="4" borderId="0" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="4" borderId="0" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,13 +798,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -828,7 +850,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -862,6 +884,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -896,9 +919,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1071,2816 +1095,3207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="16.666667"/>
-    <col min="2" max="2" customWidth="1" width="17.333333"/>
-    <col min="3" max="3" customWidth="1" width="9.333333"/>
-    <col min="4" max="4" customWidth="1" width="9.777778"/>
-    <col min="5" max="5" customWidth="1" width="10"/>
-    <col min="6" max="6" customWidth="1" width="10"/>
-    <col min="7" max="7" customWidth="1" width="10"/>
-    <col min="8" max="8" customWidth="1" width="10"/>
-    <col min="9" max="9" customWidth="1" width="10"/>
-    <col min="10" max="10" customWidth="1" width="10"/>
-    <col min="11" max="11" customWidth="1" width="10"/>
-    <col min="12" max="12" customWidth="1" width="10"/>
-    <col min="13" max="13" customWidth="1" width="9.555556"/>
-    <col min="14" max="14" customWidth="1" width="10.222222"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30.00" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7">
         <v>30</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>33</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>38</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>43</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>48</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>65</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>31</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
         <v>30</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>34</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>39</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>44</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>49</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>65</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>32</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7">
         <v>30</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>35</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>40</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>45</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>50</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>65</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
         <v>30</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>36</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>41</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>46</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>51</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>65</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
         <v>30</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>32</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>37</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>42</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>47</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>52</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>65</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
         <v>30</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>33</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>38</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>43</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>48</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>53</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>65</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4">
         <v>30</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>34</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>39</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <v>44</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>49</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>54</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>65</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>37</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4">
         <v>30</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>35</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>40</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>45</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>50</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>55</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>65</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>38</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8">
         <v>30</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>31</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>36</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>41</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <v>46</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>51</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>56</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>65</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>39</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8">
         <v>30</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>32</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>37</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>42</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>47</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>52</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>57</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>65</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>40</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8">
         <v>30</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>33</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>38</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>43</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>48</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>53</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>58</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>65</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
         <v>30</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>34</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>39</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>44</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>49</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>54</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>59</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>65</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8">
         <v>30</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>35</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>40</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>45</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>50</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>55</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="7">
         <v>60</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>65</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
         <v>30</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>31</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>36</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>41</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>46</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>51</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>56</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>61</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>66</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A17" s="5">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>44</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4">
         <v>30</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>32</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>37</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>42</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>47</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>52</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>57</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="7">
         <v>62</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>67</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A18" s="5">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>33</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>38</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>43</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>48</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>53</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>58</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>63</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>68</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A19" s="5">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>46</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4">
         <v>30</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>34</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>39</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>44</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>49</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>54</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>59</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <v>64</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>69</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A20" s="5">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>47</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="4">
         <v>30</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>35</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>40</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>45</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>50</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>55</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>60</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="7">
         <v>65</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>70</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A21" s="5">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>48</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>30</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>31</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>36</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>41</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <v>46</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>51</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>56</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>61</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="7">
         <v>66</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>71</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A22" s="5">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>49</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>32</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>37</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>42</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <v>47</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>52</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <v>57</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>62</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="7">
         <v>67</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>72</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A23" s="10">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>50</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9">
         <v>30</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>33</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>38</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>43</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>48</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>53</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>58</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>63</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>68</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A24" s="10">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>51</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9">
         <v>30</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>34</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>39</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>44</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>49</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>54</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>59</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="12">
         <v>64</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <v>69</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A25" s="10">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>52</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9">
         <v>30</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>35</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>40</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>45</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>50</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>55</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>60</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="12">
         <v>65</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>70</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A26" s="10">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>53</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>30</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>31</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>36</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>41</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>46</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>51</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>56</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>61</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="12">
         <v>66</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="11">
         <v>71</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A27" s="10">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>54</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>30</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>32</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>37</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>42</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>47</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>52</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>57</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>62</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="12">
         <v>67</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <v>72</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A28" s="10">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>55</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>30</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>33</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>38</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>43</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>48</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>53</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>58</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>63</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="12">
         <v>68</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="11">
         <v>73</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A29" s="10">
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>56</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>30</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>34</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>39</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>44</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>49</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>54</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>59</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>64</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="12">
         <v>69</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <v>74</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A30" s="10">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>57</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>30</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>35</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>40</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>45</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>50</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>55</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>60</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>65</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>70</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="11">
         <v>75</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A31" s="10">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>58</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>31</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>36</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>41</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>46</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>51</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>56</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>61</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>66</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="12">
         <v>71</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="11">
         <v>76</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A32" s="10">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>59</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>32</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>37</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>42</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>47</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>52</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>57</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>62</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>67</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="12">
         <v>72</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <v>77</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A33" s="10">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>60</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>33</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>38</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>43</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>48</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>53</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>58</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>63</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>68</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>73</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>78</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A34" s="10">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>61</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>34</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>39</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>44</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>49</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>54</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>59</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>64</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>69</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>74</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="11">
         <v>79</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A35" s="10">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>62</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>35</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>40</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>45</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>50</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>55</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>60</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>65</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>70</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>75</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <v>80</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A36" s="10">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>63</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>36</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>41</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>46</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>51</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>56</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>61</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>66</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>71</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>76</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <v>81</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A37" s="10">
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>64</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>37</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>42</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>47</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>52</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>57</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>62</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>67</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>72</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>77</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <v>82</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A38" s="15">
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>65</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>33</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>38</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <v>43</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>48</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="17">
         <v>53</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="14">
         <v>58</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="16">
         <v>63</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="14">
         <v>68</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="16">
         <v>73</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="16">
         <v>78</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A39" s="15">
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>66</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>34</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="14">
         <v>39</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <v>44</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>49</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="17">
         <v>54</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="14">
         <v>59</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="16">
         <v>64</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="14">
         <v>69</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="16">
         <v>74</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <v>79</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A40" s="15">
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>67</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>35</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>40</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <v>45</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>50</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="17">
         <v>55</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="14">
         <v>60</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="16">
         <v>65</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="14">
         <v>70</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="16">
         <v>75</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="16">
         <v>80</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A41" s="15">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>68</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>36</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>41</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <v>46</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>51</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="17">
         <v>56</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="14">
         <v>61</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="16">
         <v>66</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="14">
         <v>71</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="16">
         <v>76</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="16">
         <v>81</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A42" s="15">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>69</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>37</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>42</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <v>47</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>52</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="17">
         <v>57</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="14">
         <v>62</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="16">
         <v>67</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="14">
         <v>72</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="16">
         <v>77</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <v>82</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A43" s="15">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>70</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>38</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>43</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <v>48</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>53</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="17">
         <v>58</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="14">
         <v>63</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="16">
         <v>68</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="14">
         <v>73</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="16">
         <v>78</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="16">
         <v>83</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A44" s="15">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>71</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="14">
         <v>39</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>44</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <v>49</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>54</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="17">
         <v>59</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="14">
         <v>64</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="16">
         <v>69</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="14">
         <v>74</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="16">
         <v>79</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="16">
         <v>84</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A45" s="15">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>72</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>40</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>45</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <v>50</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>55</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H45" s="17">
         <v>60</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <v>65</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="16">
         <v>70</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="14">
         <v>75</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="16">
         <v>80</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="16">
         <v>85</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A46" s="15">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>73</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="14">
         <v>41</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>46</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>51</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>56</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="17">
         <v>61</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="14">
         <v>66</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="16">
         <v>71</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="14">
         <v>76</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="16">
         <v>81</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
         <v>86</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="N46" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A47" s="15">
+    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>74</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="14">
         <v>42</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <v>47</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>52</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="14">
         <v>57</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="17">
         <v>62</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="14">
         <v>67</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="16">
         <v>72</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="14">
         <v>77</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="16">
         <v>82</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="16">
         <v>87</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A48" s="15">
+    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>75</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>43</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>48</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>53</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>58</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="17">
         <v>63</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <v>68</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="16">
         <v>73</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="14">
         <v>78</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="16">
         <v>83</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <v>88</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A49" s="15">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>76</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>44</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>49</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <v>54</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>59</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="17">
         <v>64</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="14">
         <v>69</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="16">
         <v>74</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="14">
         <v>79</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="16">
         <v>84</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="16">
         <v>89</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A50" s="15">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>77</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>45</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <v>50</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <v>55</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>60</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="17">
         <v>65</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="14">
         <v>70</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="16">
         <v>75</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="14">
         <v>80</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="16">
         <v>85</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="16">
         <v>90</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A51" s="15">
+    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>78</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>46</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <v>51</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>56</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="14">
         <v>61</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H51" s="17">
         <v>66</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="14">
         <v>71</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>76</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="14">
         <v>81</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="16">
         <v>86</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="16">
         <v>90</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A52" s="15">
+    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>79</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="14">
         <v>47</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <v>52</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <v>57</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="14">
         <v>62</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="17">
         <v>67</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="14">
         <v>72</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="16">
         <v>77</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <v>82</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="16">
         <v>87</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="16">
         <v>90</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A53" s="15">
+    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>80</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="14">
         <v>48</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>53</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>58</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="14">
         <v>63</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <v>68</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="14">
         <v>73</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="16">
         <v>78</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <v>83</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="16">
         <v>88</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="16">
         <v>90</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A54" s="15">
+    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>81</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="14">
         <v>49</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>54</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <v>59</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <v>64</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="17">
         <v>69</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="14">
         <v>74</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="16">
         <v>79</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K54" s="14">
         <v>84</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="16">
         <v>89</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="16">
         <v>90</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A55" s="15">
+    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>82</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="14">
         <v>50</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="14">
         <v>55</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <v>60</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="14">
         <v>65</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="17">
         <v>70</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="14">
         <v>75</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="16">
         <v>80</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="14">
         <v>85</v>
       </c>
-      <c r="L55" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="17">
+      <c r="L55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="16">
         <v>90</v>
       </c>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A56" s="15">
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>83</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>50</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="14">
         <v>56</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <v>61</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>66</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="17">
         <v>71</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="14">
         <v>76</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="16">
         <v>81</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="14">
         <v>86</v>
       </c>
-      <c r="L56" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="17">
+      <c r="L56" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="16">
         <v>90</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A57" s="15">
+    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>84</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="14">
         <v>50</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="14">
         <v>57</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <v>62</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <v>67</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="17">
         <v>72</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="14">
         <v>77</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="16">
         <v>82</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="14">
         <v>87</v>
       </c>
-      <c r="L57" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="17">
+      <c r="L57" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="16">
         <v>90</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A58" s="15">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>85</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>50</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="14">
         <v>58</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <v>63</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="14">
         <v>68</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="17">
         <v>73</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="14">
         <v>78</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="16">
         <v>83</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="14">
         <v>88</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="17">
+      <c r="L58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="16">
         <v>90</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A59" s="15">
+    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>86</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="14">
         <v>50</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="14">
         <v>59</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <v>64</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>69</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="17">
         <v>74</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="14">
         <v>79</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="16">
         <v>84</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="14">
         <v>89</v>
       </c>
-      <c r="L59" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M59" s="17">
+      <c r="L59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="16">
         <v>90</v>
       </c>
-      <c r="N59" s="19" t="s">
+      <c r="N59" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A60" s="15">
+    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>87</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="14">
         <v>50</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>60</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <v>65</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>70</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="17">
         <v>75</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="14">
         <v>80</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>85</v>
       </c>
-      <c r="K60" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M60" s="17">
+      <c r="K60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="16">
         <v>90</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A61" s="15">
+    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>88</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>50</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <v>61</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <v>66</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>71</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="17">
         <v>76</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <v>81</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="16">
         <v>86</v>
       </c>
-      <c r="K61" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M61" s="17">
+      <c r="K61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="16">
         <v>90</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A62" s="15">
+    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
         <v>89</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>50</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="14">
         <v>62</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>67</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>72</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="17">
         <v>77</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="14">
         <v>82</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>87</v>
       </c>
-      <c r="K62" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M62" s="17">
+      <c r="K62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="16">
         <v>90</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A63" s="15">
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>90</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>50</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="14">
         <v>63</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <v>68</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>73</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="17">
         <v>78</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="14">
         <v>83</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="16">
         <v>88</v>
       </c>
-      <c r="K63" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M63" s="17">
+      <c r="K63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="16">
         <v>90</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.00" customHeight="1">
-      <c r="A64" s="15">
+    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>91</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>50</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>64</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>69</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>74</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="17">
         <v>79</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="14">
         <v>84</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <v>89</v>
       </c>
-      <c r="K64" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L64" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M64" s="17">
+      <c r="K64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="16">
         <v>90</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>92</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="14">
+        <v>50</v>
+      </c>
+      <c r="E65" s="14">
+        <v>64</v>
+      </c>
+      <c r="F65" s="16">
+        <v>69</v>
+      </c>
+      <c r="G65" s="14">
+        <v>74</v>
+      </c>
+      <c r="H65" s="17">
+        <v>79</v>
+      </c>
+      <c r="I65" s="14">
+        <v>84</v>
+      </c>
+      <c r="J65" s="16">
+        <v>89</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="16">
+        <v>90</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>93</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="14">
+        <v>50</v>
+      </c>
+      <c r="E66" s="14">
+        <v>64</v>
+      </c>
+      <c r="F66" s="16">
+        <v>69</v>
+      </c>
+      <c r="G66" s="14">
+        <v>74</v>
+      </c>
+      <c r="H66" s="17">
+        <v>79</v>
+      </c>
+      <c r="I66" s="14">
+        <v>84</v>
+      </c>
+      <c r="J66" s="16">
+        <v>89</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="16">
+        <v>90</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>94</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="14">
+        <v>50</v>
+      </c>
+      <c r="E67" s="14">
+        <v>64</v>
+      </c>
+      <c r="F67" s="16">
+        <v>69</v>
+      </c>
+      <c r="G67" s="14">
+        <v>74</v>
+      </c>
+      <c r="H67" s="17">
+        <v>79</v>
+      </c>
+      <c r="I67" s="14">
+        <v>84</v>
+      </c>
+      <c r="J67" s="16">
+        <v>89</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="16">
+        <v>90</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>95</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="14">
+        <v>50</v>
+      </c>
+      <c r="E68" s="14">
+        <v>64</v>
+      </c>
+      <c r="F68" s="16">
+        <v>69</v>
+      </c>
+      <c r="G68" s="14">
+        <v>74</v>
+      </c>
+      <c r="H68" s="17">
+        <v>79</v>
+      </c>
+      <c r="I68" s="14">
+        <v>84</v>
+      </c>
+      <c r="J68" s="16">
+        <v>89</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="16">
+        <v>90</v>
+      </c>
+      <c r="N68" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>96</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="14">
+        <v>50</v>
+      </c>
+      <c r="E69" s="14">
+        <v>64</v>
+      </c>
+      <c r="F69" s="16">
+        <v>69</v>
+      </c>
+      <c r="G69" s="14">
+        <v>74</v>
+      </c>
+      <c r="H69" s="17">
+        <v>79</v>
+      </c>
+      <c r="I69" s="14">
+        <v>84</v>
+      </c>
+      <c r="J69" s="16">
+        <v>89</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="16">
+        <v>90</v>
+      </c>
+      <c r="N69" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>97</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="14">
+        <v>50</v>
+      </c>
+      <c r="E70" s="14">
+        <v>64</v>
+      </c>
+      <c r="F70" s="16">
+        <v>69</v>
+      </c>
+      <c r="G70" s="14">
+        <v>74</v>
+      </c>
+      <c r="H70" s="17">
+        <v>79</v>
+      </c>
+      <c r="I70" s="14">
+        <v>84</v>
+      </c>
+      <c r="J70" s="16">
+        <v>89</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="16">
+        <v>90</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>98</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="14">
+        <v>50</v>
+      </c>
+      <c r="E71" s="14">
+        <v>64</v>
+      </c>
+      <c r="F71" s="16">
+        <v>69</v>
+      </c>
+      <c r="G71" s="14">
+        <v>74</v>
+      </c>
+      <c r="H71" s="17">
+        <v>79</v>
+      </c>
+      <c r="I71" s="14">
+        <v>84</v>
+      </c>
+      <c r="J71" s="16">
+        <v>89</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="16">
+        <v>90</v>
+      </c>
+      <c r="N71" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>99</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="14">
+        <v>50</v>
+      </c>
+      <c r="E72" s="14">
+        <v>64</v>
+      </c>
+      <c r="F72" s="16">
+        <v>69</v>
+      </c>
+      <c r="G72" s="14">
+        <v>74</v>
+      </c>
+      <c r="H72" s="17">
+        <v>79</v>
+      </c>
+      <c r="I72" s="14">
+        <v>84</v>
+      </c>
+      <c r="J72" s="16">
+        <v>89</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="16">
+        <v>90</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>100</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="14">
+        <v>50</v>
+      </c>
+      <c r="E73" s="14">
+        <v>64</v>
+      </c>
+      <c r="F73" s="16">
+        <v>69</v>
+      </c>
+      <c r="G73" s="14">
+        <v>74</v>
+      </c>
+      <c r="H73" s="17">
+        <v>79</v>
+      </c>
+      <c r="I73" s="14">
+        <v>84</v>
+      </c>
+      <c r="J73" s="16">
+        <v>89</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="16">
+        <v>90</v>
+      </c>
+      <c r="N73" s="18" t="s">
         <v>57</v>
       </c>
     </row>
